--- a/Speaker.xlsx
+++ b/Speaker.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
